--- a/Country_import_upload_Model.xlsx
+++ b/Country_import_upload_Model.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crayo\Desktop\Pricing Auto\Dahua_Pricing_Auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8356B-627D-40EA-9858-B58F19DDB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -64,12 +70,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -77,8 +83,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -124,17 +137,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -172,7 +193,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -206,6 +227,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -240,9 +262,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,14 +438,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q16" sqref="Q16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="32.75" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -448,7 +476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -474,7 +502,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>9</v>
       </c>
@@ -500,12 +528,33 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>49</v>
+      </c>
+      <c r="D4">
+        <v>56</v>
+      </c>
+      <c r="E4">
+        <v>61</v>
+      </c>
+      <c r="F4">
+        <v>70</v>
+      </c>
+      <c r="G4">
+        <v>76</v>
+      </c>
+      <c r="H4">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -531,7 +580,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>12</v>
       </c>
@@ -557,7 +606,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>13</v>
       </c>
@@ -583,7 +632,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -610,6 +659,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Country_import_upload_Model.xlsx
+++ b/Country_import_upload_Model.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crayo\Desktop\Pricing Auto\Dahua_Pricing_Auto\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DE8356B-627D-40EA-9858-B58F19DDB77D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Part No.</t>
   </si>
@@ -46,36 +40,18 @@
     <t>MSRP</t>
   </si>
   <si>
-    <t>1.0.99.83.10125</t>
-  </si>
-  <si>
-    <t>1.0.01.04.42075-0006</t>
-  </si>
-  <si>
-    <t>1.0.01.04.42701-0026</t>
-  </si>
-  <si>
-    <t>1.0.01.07.15403-0002</t>
-  </si>
-  <si>
-    <t>1.0.01.23.15694-0056</t>
-  </si>
-  <si>
-    <t>1.0.01.23.15699-0044</t>
-  </si>
-  <si>
-    <t>1.0.01.23.15578-0048</t>
+    <t>1.0.01.34.12158-0001</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -83,15 +59,8 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -137,25 +106,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -193,7 +154,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -227,7 +188,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -262,10 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,19 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q16" sqref="Q16"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="32.75" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,190 +430,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>36</v>
+        <v>236</v>
       </c>
       <c r="C2">
-        <v>40</v>
+        <v>267</v>
       </c>
       <c r="D2">
-        <v>46</v>
+        <v>304</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>334</v>
       </c>
       <c r="F2">
-        <v>52</v>
+        <v>356</v>
       </c>
       <c r="G2">
-        <v>54</v>
+        <v>382</v>
       </c>
       <c r="H2">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3">
-        <v>43</v>
-      </c>
-      <c r="C3">
-        <v>49</v>
-      </c>
-      <c r="D3">
-        <v>56</v>
-      </c>
-      <c r="E3">
-        <v>61</v>
-      </c>
-      <c r="F3">
-        <v>70</v>
-      </c>
-      <c r="G3">
-        <v>76</v>
-      </c>
-      <c r="H3">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4">
-        <v>43</v>
-      </c>
-      <c r="C4">
-        <v>49</v>
-      </c>
-      <c r="D4">
-        <v>56</v>
-      </c>
-      <c r="E4">
-        <v>61</v>
-      </c>
-      <c r="F4">
-        <v>70</v>
-      </c>
-      <c r="G4">
-        <v>76</v>
-      </c>
-      <c r="H4">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5">
-        <v>185</v>
-      </c>
-      <c r="C5">
-        <v>210</v>
-      </c>
-      <c r="D5">
-        <v>238</v>
-      </c>
-      <c r="E5">
-        <v>269</v>
-      </c>
-      <c r="F5">
-        <v>299</v>
-      </c>
-      <c r="G5">
-        <v>322</v>
-      </c>
-      <c r="H5">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6">
-        <v>69</v>
-      </c>
-      <c r="C6">
-        <v>81</v>
-      </c>
-      <c r="D6">
-        <v>93</v>
-      </c>
-      <c r="E6">
-        <v>104</v>
-      </c>
-      <c r="F6">
-        <v>116</v>
-      </c>
-      <c r="G6">
-        <v>125</v>
-      </c>
-      <c r="H6">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7">
-        <v>95</v>
-      </c>
-      <c r="C7">
-        <v>112</v>
-      </c>
-      <c r="D7">
-        <v>127</v>
-      </c>
-      <c r="E7">
-        <v>143</v>
-      </c>
-      <c r="F7">
-        <v>159</v>
-      </c>
-      <c r="G7">
-        <v>172</v>
-      </c>
-      <c r="H7">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8">
-        <v>150</v>
-      </c>
-      <c r="C8">
-        <v>177</v>
-      </c>
-      <c r="D8">
-        <v>202</v>
-      </c>
-      <c r="E8">
-        <v>227</v>
-      </c>
-      <c r="F8">
-        <v>253</v>
-      </c>
-      <c r="G8">
-        <v>273</v>
-      </c>
-      <c r="H8">
-        <v>546</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Country_import_upload_Model.xlsx
+++ b/Country_import_upload_Model.xlsx
@@ -40,7 +40,7 @@
     <t>MSRP</t>
   </si>
   <si>
-    <t>1.0.01.34.12158-0001</t>
+    <t>2.3.01.01.10597</t>
   </si>
 </sst>
 </file>
@@ -435,25 +435,25 @@
         <v>8</v>
       </c>
       <c r="B2">
-        <v>236</v>
+        <v>9000</v>
       </c>
       <c r="C2">
-        <v>267</v>
+        <v>10211</v>
       </c>
       <c r="D2">
-        <v>304</v>
+        <v>11604</v>
       </c>
       <c r="E2">
-        <v>334</v>
+        <v>13091</v>
       </c>
       <c r="F2">
-        <v>356</v>
+        <v>14587</v>
       </c>
       <c r="G2">
-        <v>382</v>
+        <v>15709</v>
       </c>
       <c r="H2">
-        <v>477</v>
+        <v>39273</v>
       </c>
     </row>
   </sheetData>

--- a/Country_import_upload_Model.xlsx
+++ b/Country_import_upload_Model.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\crayo\Desktop\Pricing Auto\Dahua_Pricing_Auto\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE1EC70-3492-4611-B1DE-FE1AFFCB5C32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -40,18 +46,19 @@
     <t>MSRP</t>
   </si>
   <si>
-    <t>2.3.01.01.10597</t>
+    <t>1.0.99.60.10039-0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -59,8 +66,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -99,24 +113,35 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -154,7 +179,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -188,6 +213,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -222,9 +248,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -397,14 +424,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -430,33 +459,34 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2">
-        <v>9000</v>
-      </c>
-      <c r="C2">
-        <v>10211</v>
-      </c>
-      <c r="D2">
-        <v>11604</v>
-      </c>
-      <c r="E2">
-        <v>13091</v>
-      </c>
-      <c r="F2">
-        <v>14587</v>
-      </c>
-      <c r="G2">
-        <v>15709</v>
-      </c>
-      <c r="H2">
-        <v>39273</v>
+      <c r="B2" s="2">
+        <v>140</v>
+      </c>
+      <c r="C2" s="2">
+        <v>163</v>
+      </c>
+      <c r="D2" s="2">
+        <v>185</v>
+      </c>
+      <c r="E2" s="2">
+        <v>209</v>
+      </c>
+      <c r="F2" s="2">
+        <v>217</v>
+      </c>
+      <c r="G2" s="2">
+        <v>232</v>
+      </c>
+      <c r="H2" s="2">
+        <v>580</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>